--- a/2022/SAMSUNG/SEPTEMBER/28.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
+++ b/2022/SAMSUNG/SEPTEMBER/28.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
@@ -3842,6 +3842,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3875,64 +3881,118 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3978,66 +4038,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6964,67 +6964,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="430" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="428"/>
-      <c r="G1" s="428"/>
-      <c r="H1" s="428"/>
-      <c r="I1" s="428"/>
-      <c r="J1" s="428"/>
-      <c r="K1" s="428"/>
-      <c r="L1" s="428"/>
-      <c r="M1" s="428"/>
-      <c r="N1" s="428"/>
-      <c r="O1" s="428"/>
-      <c r="P1" s="428"/>
-      <c r="Q1" s="428"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
+      <c r="L1" s="430"/>
+      <c r="M1" s="430"/>
+      <c r="N1" s="430"/>
+      <c r="O1" s="430"/>
+      <c r="P1" s="430"/>
+      <c r="Q1" s="430"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="429" t="s">
+      <c r="A2" s="431" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="429"/>
-      <c r="C2" s="429"/>
-      <c r="D2" s="429"/>
-      <c r="E2" s="429"/>
-      <c r="F2" s="429"/>
-      <c r="G2" s="429"/>
-      <c r="H2" s="429"/>
-      <c r="I2" s="429"/>
-      <c r="J2" s="429"/>
-      <c r="K2" s="429"/>
-      <c r="L2" s="429"/>
-      <c r="M2" s="429"/>
-      <c r="N2" s="429"/>
-      <c r="O2" s="429"/>
-      <c r="P2" s="429"/>
-      <c r="Q2" s="429"/>
+      <c r="B2" s="431"/>
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="431"/>
+      <c r="G2" s="431"/>
+      <c r="H2" s="431"/>
+      <c r="I2" s="431"/>
+      <c r="J2" s="431"/>
+      <c r="K2" s="431"/>
+      <c r="L2" s="431"/>
+      <c r="M2" s="431"/>
+      <c r="N2" s="431"/>
+      <c r="O2" s="431"/>
+      <c r="P2" s="431"/>
+      <c r="Q2" s="431"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="430" t="s">
+      <c r="A3" s="432" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="431"/>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431"/>
-      <c r="H3" s="431"/>
-      <c r="I3" s="431"/>
-      <c r="J3" s="431"/>
-      <c r="K3" s="431"/>
-      <c r="L3" s="431"/>
-      <c r="M3" s="431"/>
-      <c r="N3" s="431"/>
-      <c r="O3" s="431"/>
-      <c r="P3" s="431"/>
-      <c r="Q3" s="432"/>
+      <c r="B3" s="433"/>
+      <c r="C3" s="433"/>
+      <c r="D3" s="433"/>
+      <c r="E3" s="433"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="433"/>
+      <c r="H3" s="433"/>
+      <c r="I3" s="433"/>
+      <c r="J3" s="433"/>
+      <c r="K3" s="433"/>
+      <c r="L3" s="433"/>
+      <c r="M3" s="433"/>
+      <c r="N3" s="433"/>
+      <c r="O3" s="433"/>
+      <c r="P3" s="433"/>
+      <c r="Q3" s="434"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -7033,47 +7033,47 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="433" t="s">
+      <c r="A4" s="435" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="435" t="s">
+      <c r="B4" s="437" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="437" t="s">
+      <c r="C4" s="426" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="437" t="s">
+      <c r="D4" s="426" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="437" t="s">
+      <c r="E4" s="426" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="437" t="s">
+      <c r="F4" s="426" t="s">
         <v>278</v>
       </c>
-      <c r="G4" s="437" t="s">
+      <c r="G4" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="437" t="s">
+      <c r="H4" s="426" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="437"/>
-      <c r="J4" s="437" t="s">
+      <c r="I4" s="426"/>
+      <c r="J4" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="437" t="s">
+      <c r="K4" s="426" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="437" t="s">
+      <c r="L4" s="426" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="437" t="s">
+      <c r="M4" s="426" t="s">
         <v>280</v>
       </c>
-      <c r="N4" s="437" t="s">
+      <c r="N4" s="426" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="426" t="s">
+      <c r="O4" s="428" t="s">
         <v>110</v>
       </c>
       <c r="P4" s="439" t="s">
@@ -7089,21 +7089,21 @@
       <c r="W4" s="63"/>
     </row>
     <row r="5" spans="1:24" s="61" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="434"/>
-      <c r="B5" s="436"/>
-      <c r="C5" s="438"/>
-      <c r="D5" s="438"/>
-      <c r="E5" s="438"/>
-      <c r="F5" s="438"/>
-      <c r="G5" s="438"/>
-      <c r="H5" s="438"/>
-      <c r="I5" s="438"/>
-      <c r="J5" s="438"/>
-      <c r="K5" s="438"/>
-      <c r="L5" s="438"/>
-      <c r="M5" s="438"/>
-      <c r="N5" s="438"/>
-      <c r="O5" s="427"/>
+      <c r="A5" s="436"/>
+      <c r="B5" s="438"/>
+      <c r="C5" s="427"/>
+      <c r="D5" s="427"/>
+      <c r="E5" s="427"/>
+      <c r="F5" s="427"/>
+      <c r="G5" s="427"/>
+      <c r="H5" s="427"/>
+      <c r="I5" s="427"/>
+      <c r="J5" s="427"/>
+      <c r="K5" s="427"/>
+      <c r="L5" s="427"/>
+      <c r="M5" s="427"/>
+      <c r="N5" s="427"/>
+      <c r="O5" s="429"/>
       <c r="P5" s="440"/>
       <c r="Q5" s="117" t="s">
         <v>36</v>
@@ -10173,6 +10173,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -10189,9 +10192,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10231,14 +10231,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="448" t="s">
+      <c r="A1" s="445" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="449"/>
-      <c r="C1" s="449"/>
-      <c r="D1" s="449"/>
-      <c r="E1" s="449"/>
-      <c r="F1" s="450"/>
+      <c r="B1" s="446"/>
+      <c r="C1" s="446"/>
+      <c r="D1" s="446"/>
+      <c r="E1" s="446"/>
+      <c r="F1" s="447"/>
       <c r="G1" s="54"/>
       <c r="H1" s="133"/>
       <c r="I1" s="133"/>
@@ -10331,14 +10331,14 @@
       <c r="CR1" s="128"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="448" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="453"/>
+      <c r="B2" s="449"/>
+      <c r="C2" s="449"/>
+      <c r="D2" s="449"/>
+      <c r="E2" s="449"/>
+      <c r="F2" s="450"/>
       <c r="G2" s="54"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133"/>
@@ -10431,14 +10431,14 @@
       <c r="CR2" s="128"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="454" t="s">
+      <c r="A3" s="451" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="455"/>
-      <c r="F3" s="456"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="453"/>
       <c r="G3" s="54"/>
       <c r="H3" s="133"/>
       <c r="I3" s="133"/>
@@ -13877,12 +13877,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="123"/>
-      <c r="B35" s="445" t="s">
+      <c r="B35" s="456" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="445"/>
-      <c r="D35" s="445"/>
-      <c r="E35" s="445"/>
+      <c r="C35" s="456"/>
+      <c r="D35" s="456"/>
+      <c r="E35" s="456"/>
       <c r="F35" s="124"/>
       <c r="G35" s="129"/>
       <c r="H35" s="130"/>
@@ -14751,9 +14751,9 @@
         <v>301</v>
       </c>
       <c r="F43" s="124"/>
-      <c r="G43" s="446"/>
-      <c r="H43" s="446"/>
-      <c r="I43" s="446"/>
+      <c r="G43" s="441"/>
+      <c r="H43" s="441"/>
+      <c r="I43" s="441"/>
       <c r="J43" s="54"/>
       <c r="K43" s="133"/>
       <c r="L43" s="54"/>
@@ -20208,11 +20208,11 @@
       <c r="CR90" s="128"/>
     </row>
     <row r="91" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A91" s="443" t="s">
+      <c r="A91" s="442" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="444"/>
-      <c r="C91" s="447"/>
+      <c r="B91" s="443"/>
+      <c r="C91" s="444"/>
       <c r="D91" s="192">
         <f>SUM(D37:D90)</f>
         <v>5860729</v>
@@ -20416,11 +20416,11 @@
       <c r="CR92" s="128"/>
     </row>
     <row r="93" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A93" s="443" t="s">
+      <c r="A93" s="442" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="444"/>
-      <c r="C93" s="444"/>
+      <c r="B93" s="443"/>
+      <c r="C93" s="443"/>
       <c r="D93" s="192">
         <f>D91+L93</f>
         <v>5860729</v>
@@ -20626,11 +20626,11 @@
       <c r="CR94" s="128"/>
     </row>
     <row r="95" spans="1:96" ht="15.75">
-      <c r="A95" s="441" t="s">
+      <c r="A95" s="454" t="s">
         <v>326</v>
       </c>
-      <c r="B95" s="441"/>
-      <c r="C95" s="441"/>
+      <c r="B95" s="454"/>
+      <c r="C95" s="454"/>
       <c r="D95" s="407" t="s">
         <v>332</v>
       </c>
@@ -21250,11 +21250,11 @@
       <c r="CR100" s="128"/>
     </row>
     <row r="101" spans="1:96" s="46" customFormat="1" ht="15.75">
-      <c r="A101" s="442" t="s">
+      <c r="A101" s="455" t="s">
         <v>327</v>
       </c>
-      <c r="B101" s="442"/>
-      <c r="C101" s="442"/>
+      <c r="B101" s="455"/>
+      <c r="C101" s="455"/>
       <c r="D101" s="407" t="s">
         <v>332</v>
       </c>
@@ -21509,11 +21509,11 @@
       <c r="W105" s="54"/>
     </row>
     <row r="106" spans="1:96" s="128" customFormat="1" ht="15.75">
-      <c r="A106" s="442" t="s">
+      <c r="A106" s="455" t="s">
         <v>334</v>
       </c>
-      <c r="B106" s="442"/>
-      <c r="C106" s="442"/>
+      <c r="B106" s="455"/>
+      <c r="C106" s="455"/>
       <c r="D106" s="407" t="s">
         <v>332</v>
       </c>
@@ -30624,16 +30624,16 @@
     <sortCondition ref="A68"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="B35:E35"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -30650,7 +30650,7 @@
   <dimension ref="A1:R215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -30676,13 +30676,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="477" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="459"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="479"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -30691,13 +30691,13 @@
       <c r="K1" s="472"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="466" t="s">
+      <c r="A2" s="486" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="468"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="488"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -30718,13 +30718,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="460" t="s">
+      <c r="A3" s="480" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="461"/>
-      <c r="C3" s="461"/>
-      <c r="D3" s="461"/>
-      <c r="E3" s="462"/>
+      <c r="B3" s="481"/>
+      <c r="C3" s="481"/>
+      <c r="D3" s="481"/>
+      <c r="E3" s="482"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -30751,13 +30751,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="469" t="s">
+      <c r="A4" s="489" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="470"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="470"/>
-      <c r="E4" s="471"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="491"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -31255,11 +31255,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="260"/>
-      <c r="I17" s="473" t="s">
+      <c r="I17" s="463" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="473"/>
-      <c r="K17" s="473"/>
+      <c r="J17" s="463"/>
+      <c r="K17" s="463"/>
       <c r="L17" s="288">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -31282,11 +31282,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="260"/>
-      <c r="I18" s="474" t="s">
+      <c r="I18" s="473" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="474"/>
-      <c r="K18" s="474"/>
+      <c r="J18" s="473"/>
+      <c r="K18" s="473"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -31298,21 +31298,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="463" t="s">
+      <c r="A19" s="483" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="464"/>
-      <c r="C19" s="464"/>
-      <c r="D19" s="464"/>
-      <c r="E19" s="465"/>
+      <c r="B19" s="484"/>
+      <c r="C19" s="484"/>
+      <c r="D19" s="484"/>
+      <c r="E19" s="485"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="481" t="s">
+      <c r="I19" s="468" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="481"/>
-      <c r="K19" s="481"/>
+      <c r="J19" s="468"/>
+      <c r="K19" s="468"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -31340,11 +31340,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="475" t="s">
+      <c r="I20" s="465" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="475"/>
-      <c r="K20" s="475"/>
+      <c r="J20" s="465"/>
+      <c r="K20" s="465"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -31371,11 +31371,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="476" t="s">
+      <c r="I21" s="474" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="477"/>
-      <c r="K21" s="478"/>
+      <c r="J21" s="475"/>
+      <c r="K21" s="476"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -31400,11 +31400,11 @@
       <c r="E22" s="229">
         <v>351819</v>
       </c>
-      <c r="I22" s="481" t="s">
+      <c r="I22" s="468" t="s">
         <v>156</v>
       </c>
-      <c r="J22" s="481"/>
-      <c r="K22" s="481"/>
+      <c r="J22" s="468"/>
+      <c r="K22" s="468"/>
       <c r="L22" s="313">
         <v>20000</v>
       </c>
@@ -31429,11 +31429,11 @@
       <c r="E23" s="229">
         <v>494509</v>
       </c>
-      <c r="I23" s="482" t="s">
+      <c r="I23" s="460" t="s">
         <v>173</v>
       </c>
-      <c r="J23" s="483"/>
-      <c r="K23" s="484"/>
+      <c r="J23" s="461"/>
+      <c r="K23" s="462"/>
       <c r="L23" s="313">
         <v>40000</v>
       </c>
@@ -31458,11 +31458,11 @@
       <c r="E24" s="281">
         <v>399530</v>
       </c>
-      <c r="I24" s="481" t="s">
+      <c r="I24" s="468" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="481"/>
-      <c r="K24" s="481"/>
+      <c r="J24" s="468"/>
+      <c r="K24" s="468"/>
       <c r="L24" s="300">
         <v>30000</v>
       </c>
@@ -31487,11 +31487,11 @@
       <c r="E25" s="229">
         <v>69599</v>
       </c>
-      <c r="I25" s="481" t="s">
+      <c r="I25" s="468" t="s">
         <v>215</v>
       </c>
-      <c r="J25" s="481"/>
-      <c r="K25" s="481"/>
+      <c r="J25" s="468"/>
+      <c r="K25" s="468"/>
       <c r="L25" s="300">
         <v>20000</v>
       </c>
@@ -31516,11 +31516,11 @@
       <c r="E26" s="324">
         <v>90252</v>
       </c>
-      <c r="I26" s="473" t="s">
+      <c r="I26" s="463" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="473"/>
-      <c r="K26" s="473"/>
+      <c r="J26" s="463"/>
+      <c r="K26" s="463"/>
       <c r="L26" s="288">
         <f>L17-L18-L19-L20-L21-L22-L23-L24-L25</f>
         <v>78150</v>
@@ -31572,13 +31572,13 @@
       <c r="E28" s="229">
         <v>70000</v>
       </c>
-      <c r="I28" s="485" t="s">
+      <c r="I28" s="469" t="s">
         <v>190</v>
       </c>
-      <c r="J28" s="486"/>
-      <c r="K28" s="486"/>
-      <c r="L28" s="486"/>
-      <c r="M28" s="487"/>
+      <c r="J28" s="470"/>
+      <c r="K28" s="470"/>
+      <c r="L28" s="470"/>
+      <c r="M28" s="471"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="230" t="s">
@@ -31594,11 +31594,11 @@
       <c r="E29" s="229">
         <v>110000</v>
       </c>
-      <c r="I29" s="479" t="s">
+      <c r="I29" s="466" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="479"/>
-      <c r="K29" s="480"/>
+      <c r="J29" s="466"/>
+      <c r="K29" s="467"/>
       <c r="L29" s="328">
         <v>213170</v>
       </c>
@@ -31648,11 +31648,11 @@
       <c r="E31" s="324">
         <v>104712</v>
       </c>
-      <c r="I31" s="491" t="s">
+      <c r="I31" s="464" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="475"/>
-      <c r="K31" s="475"/>
+      <c r="J31" s="465"/>
+      <c r="K31" s="465"/>
       <c r="L31" s="327">
         <v>79500</v>
       </c>
@@ -31679,11 +31679,11 @@
       <c r="E32" s="229">
         <v>385590</v>
       </c>
-      <c r="I32" s="491" t="s">
+      <c r="I32" s="464" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="475"/>
-      <c r="K32" s="475"/>
+      <c r="J32" s="465"/>
+      <c r="K32" s="465"/>
       <c r="L32" s="327">
         <v>47500</v>
       </c>
@@ -31710,11 +31710,11 @@
       <c r="E33" s="324">
         <v>20000</v>
       </c>
-      <c r="I33" s="488" t="s">
+      <c r="I33" s="457" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="489"/>
-      <c r="K33" s="490"/>
+      <c r="J33" s="458"/>
+      <c r="K33" s="459"/>
       <c r="L33" s="327">
         <v>50000</v>
       </c>
@@ -31741,9 +31741,9 @@
       <c r="E34" s="324">
         <v>16000</v>
       </c>
-      <c r="I34" s="482"/>
-      <c r="J34" s="483"/>
-      <c r="K34" s="484"/>
+      <c r="I34" s="460"/>
+      <c r="J34" s="461"/>
+      <c r="K34" s="462"/>
       <c r="L34" s="327">
         <v>10000</v>
       </c>
@@ -31768,11 +31768,11 @@
       <c r="E35" s="367">
         <v>26100</v>
       </c>
-      <c r="I35" s="473" t="s">
+      <c r="I35" s="463" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="473"/>
-      <c r="K35" s="473"/>
+      <c r="J35" s="463"/>
+      <c r="K35" s="463"/>
       <c r="L35" s="326">
         <f>L29-L31-L32-L33-L34</f>
         <v>26170</v>
@@ -34472,11 +34472,16 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -34485,16 +34490,11 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
